--- a/biology/Zoologie/Cazierius/Cazierius.xlsx
+++ b/biology/Zoologie/Cazierius/Cazierius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cazierius est un genre de scorpions de la famille des Diplocentridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques des Antilles[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques des Antilles,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (26/11/2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (26/11/2021) :
 Cazierius alayoni Armas, 1999
 Cazierius asper Teruel, 2006
 Cazierius cayacoa Teruel, Jiménez &amp; de los Santos, 2021
@@ -585,9 +601,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est nommé en l'honneur de Mont Adelbert Cazier (1911–1995)[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est nommé en l'honneur de Mont Adelbert Cazier (1911–1995).
 </t>
         </is>
       </c>
@@ -616,7 +634,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Francke, 1978 : « Systematic revision of diplocentrid scorpions (Diplocentridae) from Circum-Caribbean Lands. » Special Publications of the Texas Tech University, vol. 14, p. 1–92 (texte intégral).</t>
         </is>
